--- a/Data/Pasta1 - Copia - Copia.xlsx
+++ b/Data/Pasta1 - Copia - Copia.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\OneDrive\Área de Trabalho\Pid-master\PID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\OneDrive\Área de Trabalho\Pid-master\PID\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B65E302-C74F-4B04-8E7A-BF04012301B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC08D72D-DD3C-4F77-8574-85ADF04128CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{69D1CC71-F9F5-440D-8139-EAF5AA4E4DF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{69D1CC71-F9F5-440D-8139-EAF5AA4E4DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Compacidade</t>
   </si>
@@ -5556,11 +5557,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A169:A176"/>
-    <mergeCell ref="A177:A184"/>
-    <mergeCell ref="A185:A192"/>
-    <mergeCell ref="A193:A200"/>
-    <mergeCell ref="A201:A208"/>
+    <mergeCell ref="A64:A71"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A56:A63"/>
     <mergeCell ref="A161:A168"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="A80:A87"/>
@@ -5573,16 +5579,11 @@
     <mergeCell ref="A145:A152"/>
     <mergeCell ref="A136:A144"/>
     <mergeCell ref="A153:A160"/>
-    <mergeCell ref="A64:A71"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A169:A176"/>
+    <mergeCell ref="A177:A184"/>
+    <mergeCell ref="A185:A192"/>
+    <mergeCell ref="A193:A200"/>
+    <mergeCell ref="A201:A208"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -10397,8 +10398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806F5224-D4BF-4191-BC7E-01B5241E8F33}">
   <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13950,4 +13951,2935 @@
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4AF4DA-F5F0-47B4-8C2B-EEDB9533E23D}">
+  <dimension ref="A1:D208"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.70949071389126284</v>
+      </c>
+      <c r="B2">
+        <v>0.52982488191808619</v>
+      </c>
+      <c r="C2">
+        <v>0.12781980598809051</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.67067877498111783</v>
+      </c>
+      <c r="B3">
+        <v>0.47011627951035267</v>
+      </c>
+      <c r="C3">
+        <v>0.14603135766704439</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.74487442192162767</v>
+      </c>
+      <c r="B4">
+        <v>0.59916436401331952</v>
+      </c>
+      <c r="C4">
+        <v>0.148951387002217</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.67389004262768448</v>
+      </c>
+      <c r="B5">
+        <v>0.5493219889080263</v>
+      </c>
+      <c r="C5">
+        <v>0.15108915880256901</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.74005241283751555</v>
+      </c>
+      <c r="B6">
+        <v>0.57634606531397703</v>
+      </c>
+      <c r="C6">
+        <v>0.1561090532997261</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.62240613167241288</v>
+      </c>
+      <c r="B7">
+        <v>0.42808841248422752</v>
+      </c>
+      <c r="C7">
+        <v>0.15994472651955099</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.69999821318945599</v>
+      </c>
+      <c r="B8">
+        <v>0.49855065727454068</v>
+      </c>
+      <c r="C8">
+        <v>0.1613720332316162</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.72067491363369873</v>
+      </c>
+      <c r="B9">
+        <v>0.55024302237827027</v>
+      </c>
+      <c r="C9">
+        <v>0.16933712147321381</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.73571654028178202</v>
+      </c>
+      <c r="B10">
+        <v>0.53934290635218507</v>
+      </c>
+      <c r="C10">
+        <v>0.1711036890685142</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.72222109991401118</v>
+      </c>
+      <c r="B11">
+        <v>0.52982256135721895</v>
+      </c>
+      <c r="C11">
+        <v>0.17311672675852691</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.72192922015414851</v>
+      </c>
+      <c r="B12">
+        <v>0.53250770445079387</v>
+      </c>
+      <c r="C12">
+        <v>0.1771378742446591</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.72280542756988531</v>
+      </c>
+      <c r="B13">
+        <v>0.52573474929614628</v>
+      </c>
+      <c r="C13">
+        <v>0.17714520066747999</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.73584814273915933</v>
+      </c>
+      <c r="B14">
+        <v>0.5678702987464419</v>
+      </c>
+      <c r="C14">
+        <v>0.18062125871835169</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.75196900348975226</v>
+      </c>
+      <c r="B15">
+        <v>0.56270997998862904</v>
+      </c>
+      <c r="C15">
+        <v>0.18686054733784349</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.73086720418810125</v>
+      </c>
+      <c r="B16">
+        <v>0.52199807334385773</v>
+      </c>
+      <c r="C16">
+        <v>0.1907739598922068</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.63681882643056875</v>
+      </c>
+      <c r="B17">
+        <v>0.4692688855985897</v>
+      </c>
+      <c r="C17">
+        <v>0.2094658859390898</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.73744170200000003</v>
+      </c>
+      <c r="B18">
+        <v>0.56561512599999997</v>
+      </c>
+      <c r="C18">
+        <v>0.213975576</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.72611029314779463</v>
+      </c>
+      <c r="B19">
+        <v>0.54855952363263749</v>
+      </c>
+      <c r="C19">
+        <v>0.22455583081230029</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.73072503277888545</v>
+      </c>
+      <c r="B20">
+        <v>0.54649322195771288</v>
+      </c>
+      <c r="C20">
+        <v>0.2397209398598931</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.73141699026792473</v>
+      </c>
+      <c r="B21">
+        <v>0.53604079157720952</v>
+      </c>
+      <c r="C21">
+        <v>0.25268116867452778</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.72493524031296441</v>
+      </c>
+      <c r="B22">
+        <v>0.53035945148404684</v>
+      </c>
+      <c r="C22">
+        <v>0.27054107166251801</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.74486455463140067</v>
+      </c>
+      <c r="B23">
+        <v>0.53682037077245526</v>
+      </c>
+      <c r="C23">
+        <v>0.27120528315357362</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.73812762936591059</v>
+      </c>
+      <c r="B24">
+        <v>0.57016371517687525</v>
+      </c>
+      <c r="C24">
+        <v>0.27360688754218532</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.71917826176958422</v>
+      </c>
+      <c r="B25">
+        <v>0.51164262032711272</v>
+      </c>
+      <c r="C25">
+        <v>0.28955913658272942</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.68145275255715609</v>
+      </c>
+      <c r="B26">
+        <v>0.51106251074245912</v>
+      </c>
+      <c r="C26">
+        <v>0.29865425238740689</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.74929525898297145</v>
+      </c>
+      <c r="B27">
+        <v>0.56526225111613071</v>
+      </c>
+      <c r="C27">
+        <v>0.3488380272676711</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.66467301937604495</v>
+      </c>
+      <c r="B28">
+        <v>0.46113108561181382</v>
+      </c>
+      <c r="C28">
+        <v>0.36358653697699561</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.71725721312543111</v>
+      </c>
+      <c r="B29">
+        <v>0.5113961335027184</v>
+      </c>
+      <c r="C29">
+        <v>0.12539831664497486</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.67462280392516583</v>
+      </c>
+      <c r="B30">
+        <v>0.53834373956840254</v>
+      </c>
+      <c r="C30">
+        <v>0.14356875227688556</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.73419111834470363</v>
+      </c>
+      <c r="B31">
+        <v>0.54732968784256353</v>
+      </c>
+      <c r="C31">
+        <v>0.16540923929742149</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.64113344735206323</v>
+      </c>
+      <c r="B32">
+        <v>0.50746400722170348</v>
+      </c>
+      <c r="C32">
+        <v>0.18057415911665184</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.7354270566918939</v>
+      </c>
+      <c r="B33">
+        <v>0.54004308432829629</v>
+      </c>
+      <c r="C33">
+        <v>0.28929917737530786</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.72642007376268669</v>
+      </c>
+      <c r="B34">
+        <v>0.52469471713629101</v>
+      </c>
+      <c r="C34">
+        <v>0.32572036164604679</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.71392827472086429</v>
+      </c>
+      <c r="B35">
+        <v>0.53578303182977782</v>
+      </c>
+      <c r="C35">
+        <v>0.32630980273479132</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.70638394099896529</v>
+      </c>
+      <c r="B36">
+        <v>0.51115584232043321</v>
+      </c>
+      <c r="C36">
+        <v>0.3624021531873084</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.50528388953843717</v>
+      </c>
+      <c r="B37">
+        <v>0.35085367650692117</v>
+      </c>
+      <c r="C37">
+        <v>0.13368505802320929</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.51985130832391069</v>
+      </c>
+      <c r="B38">
+        <v>0.37376807799452122</v>
+      </c>
+      <c r="C38">
+        <v>0.1448828672554397</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.71834204055055695</v>
+      </c>
+      <c r="B39">
+        <v>0.59709737030112819</v>
+      </c>
+      <c r="C39">
+        <v>0.1609626603244054</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.56129031027612075</v>
+      </c>
+      <c r="B40">
+        <v>0.4156107386572413</v>
+      </c>
+      <c r="C40">
+        <v>0.16388838990544949</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.50452841443768359</v>
+      </c>
+      <c r="B41">
+        <v>0.35997020134331181</v>
+      </c>
+      <c r="C41">
+        <v>0.1914333314538863</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.5102733802524444</v>
+      </c>
+      <c r="B42">
+        <v>0.36542957852989622</v>
+      </c>
+      <c r="C42">
+        <v>0.19260040763860781</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.7499163806076462</v>
+      </c>
+      <c r="B43">
+        <v>0.59714734225868182</v>
+      </c>
+      <c r="C43">
+        <v>0.20152269388320701</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.75213648582867887</v>
+      </c>
+      <c r="B44">
+        <v>0.59027738753342263</v>
+      </c>
+      <c r="C44">
+        <v>0.2122323956203214</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.73490411791626686</v>
+      </c>
+      <c r="B45">
+        <v>0.62602939609109853</v>
+      </c>
+      <c r="C45">
+        <v>0.21584217274166531</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.53084128181688606</v>
+      </c>
+      <c r="B46">
+        <v>0.34933538106391032</v>
+      </c>
+      <c r="C46">
+        <v>0.21662285527774691</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.72912172440629974</v>
+      </c>
+      <c r="B47">
+        <v>0.55048628525989851</v>
+      </c>
+      <c r="C47">
+        <v>0.21689268775229351</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.51043864500966396</v>
+      </c>
+      <c r="B48">
+        <v>0.3677041648781913</v>
+      </c>
+      <c r="C48">
+        <v>0.22449153082755161</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.71560302759218619</v>
+      </c>
+      <c r="B49">
+        <v>0.56399750400789761</v>
+      </c>
+      <c r="C49">
+        <v>0.23204072255931121</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.59770954464364223</v>
+      </c>
+      <c r="B50">
+        <v>0.43612672666141911</v>
+      </c>
+      <c r="C50">
+        <v>0.24223622364867239</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.71647043678460898</v>
+      </c>
+      <c r="B51">
+        <v>0.56159880932930806</v>
+      </c>
+      <c r="C51">
+        <v>0.25253469073140028</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.57519602562334848</v>
+      </c>
+      <c r="B52">
+        <v>0.39574976042678689</v>
+      </c>
+      <c r="C52">
+        <v>0.26046003319695438</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.53098529183621257</v>
+      </c>
+      <c r="B53">
+        <v>0.38171816874743508</v>
+      </c>
+      <c r="C53">
+        <v>0.26115421061314181</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0.75712312877245602</v>
+      </c>
+      <c r="B54">
+        <v>0.62541972450710825</v>
+      </c>
+      <c r="C54">
+        <v>0.26168184625361862</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.55514871541133326</v>
+      </c>
+      <c r="B55">
+        <v>0.37960485040196967</v>
+      </c>
+      <c r="C55">
+        <v>0.27946135235314601</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.50071207900000003</v>
+      </c>
+      <c r="B56">
+        <v>0.346373347</v>
+      </c>
+      <c r="C56">
+        <v>0.28399763500000003</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0.70464313504982978</v>
+      </c>
+      <c r="B57">
+        <v>0.55667649072213887</v>
+      </c>
+      <c r="C57">
+        <v>0.30842578811700988</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.76021538539544065</v>
+      </c>
+      <c r="B58">
+        <v>0.63384412518260702</v>
+      </c>
+      <c r="C58">
+        <v>0.3091908476106533</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.60306004686580927</v>
+      </c>
+      <c r="B59">
+        <v>0.43059312516621429</v>
+      </c>
+      <c r="C59">
+        <v>0.31602268941203521</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.72349128699999998</v>
+      </c>
+      <c r="B60">
+        <v>0.569084904</v>
+      </c>
+      <c r="C60">
+        <v>0.339814318</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.60393151697880998</v>
+      </c>
+      <c r="B61">
+        <v>0.43565283098878799</v>
+      </c>
+      <c r="C61">
+        <v>0.34176383160579432</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.5938980575122651</v>
+      </c>
+      <c r="B62">
+        <v>0.40037156298623339</v>
+      </c>
+      <c r="C62">
+        <v>0.34311654099969091</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.73987983253771317</v>
+      </c>
+      <c r="B63">
+        <v>0.61713668367757013</v>
+      </c>
+      <c r="C63">
+        <v>0.3513736612020773</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.74743871211551183</v>
+      </c>
+      <c r="B64">
+        <v>0.63279620217950561</v>
+      </c>
+      <c r="C64">
+        <v>0.36537688576231098</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.73562909843182567</v>
+      </c>
+      <c r="B65">
+        <v>0.58290720662211581</v>
+      </c>
+      <c r="C65">
+        <v>0.36970131631465331</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.7320917774445117</v>
+      </c>
+      <c r="B66">
+        <v>0.5727128827295096</v>
+      </c>
+      <c r="C66">
+        <v>0.4241880196884546</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.56393794079351522</v>
+      </c>
+      <c r="B67">
+        <v>0.37206268688996358</v>
+      </c>
+      <c r="C67">
+        <v>0.42666397660547739</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.56401279665803006</v>
+      </c>
+      <c r="B68">
+        <v>0.41864540827331381</v>
+      </c>
+      <c r="C68">
+        <v>0.11967283520171243</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.5435074534392067</v>
+      </c>
+      <c r="B69">
+        <v>0.41268644405426158</v>
+      </c>
+      <c r="C69">
+        <v>0.18476781964543484</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.72368854257397908</v>
+      </c>
+      <c r="B70">
+        <v>0.59883086289599019</v>
+      </c>
+      <c r="C70">
+        <v>0.20945586158814219</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.75978400819630398</v>
+      </c>
+      <c r="B71">
+        <v>0.60651319658528313</v>
+      </c>
+      <c r="C71">
+        <v>0.27863415844996436</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.58777352806020777</v>
+      </c>
+      <c r="B72">
+        <v>0.4024085302378152</v>
+      </c>
+      <c r="C72">
+        <v>0.31657092768632611</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.55907575633562612</v>
+      </c>
+      <c r="B73">
+        <v>0.37368111040030522</v>
+      </c>
+      <c r="C73">
+        <v>0.39550573964613728</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.77090219863402309</v>
+      </c>
+      <c r="B74">
+        <v>0.61533397225322239</v>
+      </c>
+      <c r="C74">
+        <v>0.41661903361993963</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.76522418510014356</v>
+      </c>
+      <c r="B75">
+        <v>0.5968525545456661</v>
+      </c>
+      <c r="C75">
+        <v>0.45552918090897571</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.57921914752048564</v>
+      </c>
+      <c r="B76">
+        <v>0.35729921301135292</v>
+      </c>
+      <c r="C76">
+        <v>0.1024723126604451</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.58653509871423148</v>
+      </c>
+      <c r="B77">
+        <v>0.36707877649145371</v>
+      </c>
+      <c r="C77">
+        <v>0.11436123886840981</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.58502355194473066</v>
+      </c>
+      <c r="B78">
+        <v>0.36526658665677891</v>
+      </c>
+      <c r="C78">
+        <v>0.123400473389336</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.55800881885980469</v>
+      </c>
+      <c r="B79">
+        <v>0.32995740606754481</v>
+      </c>
+      <c r="C79">
+        <v>0.12387219396486331</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.56931787853527582</v>
+      </c>
+      <c r="B80">
+        <v>0.3382243628798387</v>
+      </c>
+      <c r="C80">
+        <v>0.1245880598061552</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.60221061712708623</v>
+      </c>
+      <c r="B81">
+        <v>0.38514934603991702</v>
+      </c>
+      <c r="C81">
+        <v>0.1357471923954767</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.60919917337044971</v>
+      </c>
+      <c r="B82">
+        <v>0.3837643870751431</v>
+      </c>
+      <c r="C82">
+        <v>0.1507594226460158</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.61798208576223934</v>
+      </c>
+      <c r="B83">
+        <v>0.39565543831624977</v>
+      </c>
+      <c r="C83">
+        <v>0.15119191364467319</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.59856096616131882</v>
+      </c>
+      <c r="B84">
+        <v>0.35963585968519451</v>
+      </c>
+      <c r="C84">
+        <v>0.169838575255748</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.6140752610334258</v>
+      </c>
+      <c r="B85">
+        <v>0.39697391275708799</v>
+      </c>
+      <c r="C85">
+        <v>0.17624118596524391</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.58348874052718902</v>
+      </c>
+      <c r="B86">
+        <v>0.35131828208365617</v>
+      </c>
+      <c r="C86">
+        <v>0.17713738788546859</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.54871656995809215</v>
+      </c>
+      <c r="B87">
+        <v>0.33730617823192982</v>
+      </c>
+      <c r="C87">
+        <v>0.18046034659030169</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.58985765477679875</v>
+      </c>
+      <c r="B88">
+        <v>0.37077961107198681</v>
+      </c>
+      <c r="C88">
+        <v>0.1821188349293292</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.58227637419626432</v>
+      </c>
+      <c r="B89">
+        <v>0.35363474584416732</v>
+      </c>
+      <c r="C89">
+        <v>0.18684272425667159</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.60425772281404388</v>
+      </c>
+      <c r="B90">
+        <v>0.37903420730224607</v>
+      </c>
+      <c r="C90">
+        <v>0.18925234412477471</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.61866853242060471</v>
+      </c>
+      <c r="B91">
+        <v>0.39044009377343358</v>
+      </c>
+      <c r="C91">
+        <v>0.19595442143865929</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.59990604882849097</v>
+      </c>
+      <c r="B92">
+        <v>0.38438271218477438</v>
+      </c>
+      <c r="C92">
+        <v>0.19903656721590521</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.58528983746458196</v>
+      </c>
+      <c r="B93">
+        <v>0.35431873297664618</v>
+      </c>
+      <c r="C93">
+        <v>0.21988076981004631</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.59882726316971302</v>
+      </c>
+      <c r="B94">
+        <v>0.37078924756554038</v>
+      </c>
+      <c r="C94">
+        <v>0.22175476005524661</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.59954115541010611</v>
+      </c>
+      <c r="B95">
+        <v>0.37313860285418488</v>
+      </c>
+      <c r="C95">
+        <v>0.22336536250253611</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.58520196785919742</v>
+      </c>
+      <c r="B96">
+        <v>0.35352064570410369</v>
+      </c>
+      <c r="C96">
+        <v>0.22342087594042881</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.59080887239155033</v>
+      </c>
+      <c r="B97">
+        <v>0.35925906774980459</v>
+      </c>
+      <c r="C97">
+        <v>0.22381714655035831</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.63303793632264793</v>
+      </c>
+      <c r="B98">
+        <v>0.4033303172750885</v>
+      </c>
+      <c r="C98">
+        <v>0.2254484266887069</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.61651239990409956</v>
+      </c>
+      <c r="B99">
+        <v>0.39017360205661972</v>
+      </c>
+      <c r="C99">
+        <v>0.24762577460632959</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.54728409899999997</v>
+      </c>
+      <c r="B100">
+        <v>0.33318065699999999</v>
+      </c>
+      <c r="C100">
+        <v>0.259698596</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.60921841415481948</v>
+      </c>
+      <c r="B101">
+        <v>0.38600416557972922</v>
+      </c>
+      <c r="C101">
+        <v>0.26496313230078489</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.57330198197324966</v>
+      </c>
+      <c r="B102">
+        <v>0.34737901612817818</v>
+      </c>
+      <c r="C102">
+        <v>0.26657591030610328</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.62201164632865102</v>
+      </c>
+      <c r="B103">
+        <v>0.39156417889059958</v>
+      </c>
+      <c r="C103">
+        <v>0.27325173805904662</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.57669358306709972</v>
+      </c>
+      <c r="B104">
+        <v>0.34933584288354169</v>
+      </c>
+      <c r="C104">
+        <v>0.27346801099749418</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0.54950703128789102</v>
+      </c>
+      <c r="B105">
+        <v>0.33381360706345142</v>
+      </c>
+      <c r="C105">
+        <v>0.28449917997207241</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0.60486060902911709</v>
+      </c>
+      <c r="B106">
+        <v>0.37333459934869889</v>
+      </c>
+      <c r="C106">
+        <v>0.28636820326522722</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0.61087680600594618</v>
+      </c>
+      <c r="B107">
+        <v>0.36382531737729862</v>
+      </c>
+      <c r="C107">
+        <v>0.36696607239374668</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0.57840040805144366</v>
+      </c>
+      <c r="B108">
+        <v>0.33820577356209369</v>
+      </c>
+      <c r="C108">
+        <v>0.41518947036927512</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.59147440807185159</v>
+      </c>
+      <c r="B109">
+        <v>0.40624925079532531</v>
+      </c>
+      <c r="C109">
+        <v>0.13731743290281201</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.61929325243514288</v>
+      </c>
+      <c r="B110">
+        <v>0.41098704067165043</v>
+      </c>
+      <c r="C110">
+        <v>0.14388103774609876</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.60591580500022257</v>
+      </c>
+      <c r="B111">
+        <v>0.38427355845726702</v>
+      </c>
+      <c r="C111">
+        <v>0.27192104530731798</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0.60329693726506017</v>
+      </c>
+      <c r="B112">
+        <v>0.37098091040508352</v>
+      </c>
+      <c r="C112">
+        <v>0.29482869482614188</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0.45795016592328308</v>
+      </c>
+      <c r="B113">
+        <v>0.29001626777066392</v>
+      </c>
+      <c r="C113">
+        <v>0.12554534639990619</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0.44544634642678699</v>
+      </c>
+      <c r="B114">
+        <v>0.28007907308308572</v>
+      </c>
+      <c r="C114">
+        <v>0.1305039950296509</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>0.46090662437949981</v>
+      </c>
+      <c r="B115">
+        <v>0.29212530181746049</v>
+      </c>
+      <c r="C115">
+        <v>0.1375501015821512</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0.44541147367530792</v>
+      </c>
+      <c r="B116">
+        <v>0.27623495251751617</v>
+      </c>
+      <c r="C116">
+        <v>0.15706943060918149</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0.41901543124590118</v>
+      </c>
+      <c r="B117">
+        <v>0.26909495063444278</v>
+      </c>
+      <c r="C117">
+        <v>0.16081387874277231</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0.43429590036382643</v>
+      </c>
+      <c r="B118">
+        <v>0.27383809715748392</v>
+      </c>
+      <c r="C118">
+        <v>0.16355319548479599</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0.42831627843498549</v>
+      </c>
+      <c r="B119">
+        <v>0.25625524322416871</v>
+      </c>
+      <c r="C119">
+        <v>0.18394515050745719</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0.42944225764713811</v>
+      </c>
+      <c r="B120">
+        <v>0.2463741741327479</v>
+      </c>
+      <c r="C120">
+        <v>0.18518439180581081</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.42767501753148968</v>
+      </c>
+      <c r="B121">
+        <v>0.25208167314438329</v>
+      </c>
+      <c r="C121">
+        <v>0.1872037728268626</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.4351680865895326</v>
+      </c>
+      <c r="B122">
+        <v>0.27632674369889609</v>
+      </c>
+      <c r="C122">
+        <v>0.19449050481231561</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>0.43687358813162502</v>
+      </c>
+      <c r="B123">
+        <v>0.26211905887039938</v>
+      </c>
+      <c r="C123">
+        <v>0.19587995573543349</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>0.41565551705181081</v>
+      </c>
+      <c r="B124">
+        <v>0.24460069520842009</v>
+      </c>
+      <c r="C124">
+        <v>0.19624128247507469</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>0.44538465485150358</v>
+      </c>
+      <c r="B125">
+        <v>0.26805661036620981</v>
+      </c>
+      <c r="C125">
+        <v>0.20966977503866141</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>0.41896054204013111</v>
+      </c>
+      <c r="B126">
+        <v>0.24751837240682761</v>
+      </c>
+      <c r="C126">
+        <v>0.2192268128534457</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>0.42644021911178298</v>
+      </c>
+      <c r="B127">
+        <v>0.25775836841825428</v>
+      </c>
+      <c r="C127">
+        <v>0.22076803886259899</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>0.43168183348603523</v>
+      </c>
+      <c r="B128">
+        <v>0.26083631767295667</v>
+      </c>
+      <c r="C128">
+        <v>0.22983652096189761</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0.45604212700000002</v>
+      </c>
+      <c r="B129">
+        <v>0.27453726499999997</v>
+      </c>
+      <c r="C129">
+        <v>0.23883896199999999</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0.45353636845500028</v>
+      </c>
+      <c r="B130">
+        <v>0.26628989932768371</v>
+      </c>
+      <c r="C130">
+        <v>0.26642917966633722</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>0.45252011670311842</v>
+      </c>
+      <c r="B131">
+        <v>0.26491158750956129</v>
+      </c>
+      <c r="C131">
+        <v>0.27351947141880112</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0.45350973689190988</v>
+      </c>
+      <c r="B132">
+        <v>0.26920245976470902</v>
+      </c>
+      <c r="C132">
+        <v>0.2756651312973909</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>0.45796589758109751</v>
+      </c>
+      <c r="B133">
+        <v>0.28747560467623678</v>
+      </c>
+      <c r="C133">
+        <v>0.28226740056281491</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0.44321636276047061</v>
+      </c>
+      <c r="B134">
+        <v>0.27265196538250858</v>
+      </c>
+      <c r="C134">
+        <v>0.29128492720665861</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0.45024788913944142</v>
+      </c>
+      <c r="B135">
+        <v>0.27179111170618631</v>
+      </c>
+      <c r="C135">
+        <v>0.3499258994909617</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0.44076511334547419</v>
+      </c>
+      <c r="B136">
+        <v>0.26273176222214389</v>
+      </c>
+      <c r="C136">
+        <v>0.35566838086057551</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>0.4770241857218338</v>
+      </c>
+      <c r="B137">
+        <v>0.30362452547914592</v>
+      </c>
+      <c r="C137">
+        <v>0.15461832027698116</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>0.42376906142401349</v>
+      </c>
+      <c r="B138">
+        <v>0.26082921406741022</v>
+      </c>
+      <c r="C138">
+        <v>0.17330794700554153</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>0.44887477101315298</v>
+      </c>
+      <c r="B139">
+        <v>0.27536361174860058</v>
+      </c>
+      <c r="C139">
+        <v>0.30050502790218914</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>0.44234495808413332</v>
+      </c>
+      <c r="B140">
+        <v>0.27017404501807291</v>
+      </c>
+      <c r="C140">
+        <v>0.33943745749132886</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>0.745198371100943</v>
+      </c>
+      <c r="B141">
+        <v>0.65014721559734823</v>
+      </c>
+      <c r="C141">
+        <v>0.22803057356086759</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0.65245540545337499</v>
+      </c>
+      <c r="B142">
+        <v>0.46647492349375819</v>
+      </c>
+      <c r="C142">
+        <v>0.2318274369007812</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0.64644252614799402</v>
+      </c>
+      <c r="B143">
+        <v>0.49726417733570277</v>
+      </c>
+      <c r="C143">
+        <v>0.23388536659123851</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0.69489898037294273</v>
+      </c>
+      <c r="B144">
+        <v>0.54516385454171845</v>
+      </c>
+      <c r="C144">
+        <v>0.24029512598238281</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0.71026732553861283</v>
+      </c>
+      <c r="B145">
+        <v>0.55226065291446358</v>
+      </c>
+      <c r="C145">
+        <v>0.24872282383278471</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0.71422502191630099</v>
+      </c>
+      <c r="B146">
+        <v>0.57681407991548628</v>
+      </c>
+      <c r="C146">
+        <v>0.25365534740433021</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>0.70331042972118973</v>
+      </c>
+      <c r="B147">
+        <v>0.54823978126630424</v>
+      </c>
+      <c r="C147">
+        <v>0.25986974581646072</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>0.71374087320257262</v>
+      </c>
+      <c r="B148">
+        <v>0.57104152315198786</v>
+      </c>
+      <c r="C148">
+        <v>0.27189217784810482</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0.71424782501845552</v>
+      </c>
+      <c r="B149">
+        <v>0.62901942234290731</v>
+      </c>
+      <c r="C149">
+        <v>0.2749245721905208</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>0.77853199381892879</v>
+      </c>
+      <c r="B150">
+        <v>0.64092985334518993</v>
+      </c>
+      <c r="C150">
+        <v>0.30502240886849358</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>0.72329477862601754</v>
+      </c>
+      <c r="B151">
+        <v>0.60514264729878386</v>
+      </c>
+      <c r="C151">
+        <v>0.3075115813257126</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>0.73529849472289766</v>
+      </c>
+      <c r="B152">
+        <v>0.62232243947891808</v>
+      </c>
+      <c r="C152">
+        <v>0.30976500144963343</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>0.74603683268402532</v>
+      </c>
+      <c r="B153">
+        <v>0.63569976402482575</v>
+      </c>
+      <c r="C153">
+        <v>0.31980566095029211</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0.63694399700000004</v>
+      </c>
+      <c r="B154">
+        <v>0.50718608499999995</v>
+      </c>
+      <c r="C154">
+        <v>0.33305733900000001</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0.73455641281062667</v>
+      </c>
+      <c r="B155">
+        <v>0.61071267642966043</v>
+      </c>
+      <c r="C155">
+        <v>0.33712008608471872</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0.718834357923816</v>
+      </c>
+      <c r="B156">
+        <v>0.53710459183673465</v>
+      </c>
+      <c r="C156">
+        <v>0.34303892343175002</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0.68223536480515379</v>
+      </c>
+      <c r="B157">
+        <v>0.52585922840290578</v>
+      </c>
+      <c r="C157">
+        <v>0.34769896723341198</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>0.73560120739474932</v>
+      </c>
+      <c r="B158">
+        <v>0.62571090254563155</v>
+      </c>
+      <c r="C158">
+        <v>0.36306474667115463</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>0.65825092975125155</v>
+      </c>
+      <c r="B159">
+        <v>0.52875066915662794</v>
+      </c>
+      <c r="C159">
+        <v>0.36798271916060121</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>0.75032997321035222</v>
+      </c>
+      <c r="B160">
+        <v>0.63489692366471095</v>
+      </c>
+      <c r="C160">
+        <v>0.3721539221909112</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>0.735878225</v>
+      </c>
+      <c r="B161">
+        <v>0.59353298200000004</v>
+      </c>
+      <c r="C161">
+        <v>0.37732834100000001</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>0.76117221584852857</v>
+      </c>
+      <c r="B162">
+        <v>0.63152620813288185</v>
+      </c>
+      <c r="C162">
+        <v>0.37742213774094452</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>0.72858218371261818</v>
+      </c>
+      <c r="B163">
+        <v>0.59907693641064907</v>
+      </c>
+      <c r="C163">
+        <v>0.38749416683161492</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>0.72572901381762089</v>
+      </c>
+      <c r="B164">
+        <v>0.61256257129640823</v>
+      </c>
+      <c r="C164">
+        <v>0.39105420873680458</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>0.74878163409514309</v>
+      </c>
+      <c r="B165">
+        <v>0.62848329936494696</v>
+      </c>
+      <c r="C165">
+        <v>0.41687604174153509</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>0.72183238338039712</v>
+      </c>
+      <c r="B166">
+        <v>0.61506166335876566</v>
+      </c>
+      <c r="C166">
+        <v>0.29913880982582852</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>0.71357715005946598</v>
+      </c>
+      <c r="B167">
+        <v>0.63586421299434226</v>
+      </c>
+      <c r="C167">
+        <v>0.330245409909173</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>0.75693021084563761</v>
+      </c>
+      <c r="B168">
+        <v>0.68670964155075653</v>
+      </c>
+      <c r="C168">
+        <v>0.41907035935864351</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>0.73823093858477717</v>
+      </c>
+      <c r="B169">
+        <v>0.64866725953919302</v>
+      </c>
+      <c r="C169">
+        <v>0.45157597795821414</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>0.71099431113505729</v>
+      </c>
+      <c r="B170">
+        <v>0.67023614756364946</v>
+      </c>
+      <c r="C170">
+        <v>0.1523878302781507</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>0.73013237785719143</v>
+      </c>
+      <c r="B171">
+        <v>0.75191831015687305</v>
+      </c>
+      <c r="C171">
+        <v>0.15788482981173421</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>0.72660460429937945</v>
+      </c>
+      <c r="B172">
+        <v>0.75523436452999593</v>
+      </c>
+      <c r="C172">
+        <v>0.16686904282769491</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>0.71199442662270263</v>
+      </c>
+      <c r="B173">
+        <v>0.67994280426835974</v>
+      </c>
+      <c r="C173">
+        <v>0.17272799596439109</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>0.76775451123644411</v>
+      </c>
+      <c r="B174">
+        <v>0.78317077084930709</v>
+      </c>
+      <c r="C174">
+        <v>0.17473074586968321</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>0.70643429091014087</v>
+      </c>
+      <c r="B175">
+        <v>0.70390859964383778</v>
+      </c>
+      <c r="C175">
+        <v>0.17531152911877829</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>0.68213069799880477</v>
+      </c>
+      <c r="B176">
+        <v>0.81573012293862113</v>
+      </c>
+      <c r="C176">
+        <v>0.1769419554462888</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>0.71062322756435714</v>
+      </c>
+      <c r="B177">
+        <v>0.73764621796193974</v>
+      </c>
+      <c r="C177">
+        <v>0.17905514339187009</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>0.7515106658396945</v>
+      </c>
+      <c r="B178">
+        <v>0.77384806785906646</v>
+      </c>
+      <c r="C178">
+        <v>0.18189329760148221</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0.73338473302128881</v>
+      </c>
+      <c r="B179">
+        <v>0.74097552695809654</v>
+      </c>
+      <c r="C179">
+        <v>0.1913795273666416</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0.71705285022465481</v>
+      </c>
+      <c r="B180">
+        <v>0.76911177211679016</v>
+      </c>
+      <c r="C180">
+        <v>0.19324273026323471</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0.73692104547023174</v>
+      </c>
+      <c r="B181">
+        <v>0.83445914614748395</v>
+      </c>
+      <c r="C181">
+        <v>0.1987660085515921</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>0.74040193428089029</v>
+      </c>
+      <c r="B182">
+        <v>0.69034539627496294</v>
+      </c>
+      <c r="C182">
+        <v>0.20477704823587889</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>0.71886532360154354</v>
+      </c>
+      <c r="B183">
+        <v>0.68290788829005389</v>
+      </c>
+      <c r="C183">
+        <v>0.2054910023535555</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>0.7461277078892854</v>
+      </c>
+      <c r="B184">
+        <v>0.67390765471909886</v>
+      </c>
+      <c r="C184">
+        <v>0.2108555629554342</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>0.71833169245503026</v>
+      </c>
+      <c r="B185">
+        <v>0.66469790704518772</v>
+      </c>
+      <c r="C185">
+        <v>0.2176642529964059</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>0.73005176491470147</v>
+      </c>
+      <c r="B186">
+        <v>0.74132995365813381</v>
+      </c>
+      <c r="C186">
+        <v>0.22587790350652859</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>0.72635963126536474</v>
+      </c>
+      <c r="B187">
+        <v>0.69491466435737326</v>
+      </c>
+      <c r="C187">
+        <v>0.2292309159027594</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>0.72178618824733543</v>
+      </c>
+      <c r="B188">
+        <v>0.65950275839700334</v>
+      </c>
+      <c r="C188">
+        <v>0.23590661842820809</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>0.72578835008948361</v>
+      </c>
+      <c r="B189">
+        <v>0.70693042062577982</v>
+      </c>
+      <c r="C189">
+        <v>0.2388659107493514</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>0.73313048400000003</v>
+      </c>
+      <c r="B190">
+        <v>0.70583274699999998</v>
+      </c>
+      <c r="C190">
+        <v>0.24644670699999999</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>0.76181425511274647</v>
+      </c>
+      <c r="B191">
+        <v>0.78111480101776498</v>
+      </c>
+      <c r="C191">
+        <v>0.26881505594715538</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>0.74579349480326329</v>
+      </c>
+      <c r="B192">
+        <v>0.7356582582585357</v>
+      </c>
+      <c r="C192">
+        <v>0.27104469082977339</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>0.77973610037235752</v>
+      </c>
+      <c r="B193">
+        <v>0.76164291305098697</v>
+      </c>
+      <c r="C193">
+        <v>0.27471269691952999</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>0.76847935608842743</v>
+      </c>
+      <c r="B194">
+        <v>0.70189356937549052</v>
+      </c>
+      <c r="C194">
+        <v>0.28552335369843479</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>0.74862093906364102</v>
+      </c>
+      <c r="B195">
+        <v>0.71783216484382784</v>
+      </c>
+      <c r="C195">
+        <v>0.28880463858928679</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>0.75260005175092703</v>
+      </c>
+      <c r="B196">
+        <v>0.76824980403940479</v>
+      </c>
+      <c r="C196">
+        <v>0.30692258380181131</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>0.77636412878997063</v>
+      </c>
+      <c r="B197">
+        <v>0.73073805827597016</v>
+      </c>
+      <c r="C197">
+        <v>0.31420194137462931</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>0.43009270589512488</v>
+      </c>
+      <c r="B198">
+        <v>0.51451803131560037</v>
+      </c>
+      <c r="C198">
+        <v>0.3176647649264947</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>0.75035498018826097</v>
+      </c>
+      <c r="B199">
+        <v>0.70434685037644262</v>
+      </c>
+      <c r="C199">
+        <v>0.32206106946426971</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>0.74452571303655835</v>
+      </c>
+      <c r="B200">
+        <v>0.80882972085421323</v>
+      </c>
+      <c r="C200">
+        <v>0.40358589855932758</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>0.74017520258505476</v>
+      </c>
+      <c r="B201">
+        <v>0.75136713882591954</v>
+      </c>
+      <c r="C201">
+        <v>0.14934171323557505</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>0.73133523701166503</v>
+      </c>
+      <c r="B202">
+        <v>0.66481660739462545</v>
+      </c>
+      <c r="C202">
+        <v>0.17812221884822538</v>
+      </c>
+      <c r="D202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>0.74587293647425879</v>
+      </c>
+      <c r="B203">
+        <v>0.78382507579374083</v>
+      </c>
+      <c r="C203">
+        <v>0.1999992595815698</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>0.74018442080276059</v>
+      </c>
+      <c r="B204">
+        <v>0.67338382815033726</v>
+      </c>
+      <c r="C204">
+        <v>0.24892631978029833</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0.77180683279957973</v>
+      </c>
+      <c r="B205">
+        <v>0.7606118241552563</v>
+      </c>
+      <c r="C205">
+        <v>0.26568963414285712</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0.77289285187583989</v>
+      </c>
+      <c r="B206">
+        <v>0.81690145434213712</v>
+      </c>
+      <c r="C206">
+        <v>0.34210342755574985</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>0.77912987659199229</v>
+      </c>
+      <c r="B207">
+        <v>0.66954024517192734</v>
+      </c>
+      <c r="C207">
+        <v>0.40510334713553842</v>
+      </c>
+      <c r="D207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>0.7933635308089676</v>
+      </c>
+      <c r="B208">
+        <v>0.72615929445432126</v>
+      </c>
+      <c r="C208">
+        <v>0.45252247915638</v>
+      </c>
+      <c r="D208">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>